--- a/static/beta/docs/Scorecard-20192020.xlsx
+++ b/static/beta/docs/Scorecard-20192020.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neilcooper/league-site/static/beta/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4034E3-2E4E-4945-9A4F-CDD25E0EA757}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="RgJVEUxADooasPKzZ+pLR9VTcWa59E8QxU6U27vUA5TUnr2h0CrC6k7cpqJrPKw8mzydUxwtZ1sqOpBc2hVKkg==" workbookSaltValue="CPJ2UvYeHRicO3dK54dqQg==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C83C3F-55A6-1848-8530-FF2C83D42D95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="ZYwNn1NYsYAl4lnGXDjUnCJrvi9qrFxgQRxoApkI6WJT/MFMW4gDzKRUPuqPIQxaN5y5BNI0V3XupFLaDKEQkA==" workbookSaltValue="FBfU9ADxLTlLx6qDXV23sA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Match Info" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="Division_1">Sheet1!$D$2:$D$11</definedName>
     <definedName name="Division_2">Sheet1!$E$2:$E$11</definedName>
     <definedName name="Division_3">Sheet1!$F$2:$F$11</definedName>
-    <definedName name="Division_4">Sheet1!$G$2:$G$11</definedName>
+    <definedName name="Division_4">Sheet1!$G$2:$G$12</definedName>
     <definedName name="Divisions">Sheet1!$B$2:$B$6</definedName>
     <definedName name="Premier">Sheet1!$C$2:$C$11</definedName>
   </definedNames>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="148">
   <si>
     <t>Home Team</t>
   </si>
@@ -487,6 +487,9 @@
   </si>
   <si>
     <t>Blue Triangle A</t>
+  </si>
+  <si>
+    <t>College Green D</t>
   </si>
 </sst>
 </file>
@@ -581,10 +584,10 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1224,7 +1227,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1245,7 +1248,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>28</v>
@@ -1289,7 +1292,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="6" t="s">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1465,18 +1468,18 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1764,7 +1767,7 @@
       <c r="L25" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="grN8MeLb+dT1XAbRwM7RjSljdrX1zbuVh5J1OqxUXcIpTEXrqhei5ZsC6btA2GdabuADNrANqCbbaPLfV5oj+Q==" saltValue="Adk0I6Hgrxs5O183RBWvCg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5h7N1Oa67AqX0QFVeBOPT44jYhc3KlPBam+FGt3E+ETBq3AnkxEBHetrYTP0HVyCGpb1f6b87YQp0JT/Z7a7iw==" saltValue="vFVRMrxRXGzE/nSZp7hjag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
@@ -2069,7 +2072,7 @@
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2085,13 +2088,13 @@
       <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>47</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -2105,13 +2108,13 @@
       <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>140</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -2125,13 +2128,13 @@
       <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>42</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -2145,13 +2148,13 @@
       <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -2165,13 +2168,13 @@
       <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>124</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -2182,13 +2185,13 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -2199,13 +2202,13 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -2216,13 +2219,13 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>138</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -2233,13 +2236,13 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>52</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -2250,7 +2253,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>128</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -2268,7 +2271,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G12" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2492,7 +2495,7 @@
       </c>
       <c r="C2" t="str">
         <f>'Match Info'!C1</f>
-        <v>Premier</v>
+        <v>Division 4</v>
       </c>
       <c r="D2" t="str">
         <f>'Match Info'!B3</f>
@@ -2500,7 +2503,7 @@
       </c>
       <c r="E2" t="str">
         <f>'Match Info'!E3</f>
-        <v>David Lloyd A</v>
+        <v>Away Team</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE('Match Info'!$B5," &amp; ",'Match Info'!$B6)</f>
